--- a/opm_hero_property/design/job_30001.xlsx
+++ b/opm_hero_property/design/job_30001.xlsx
@@ -1,66 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.1.8.42\oas\PycharmProjects\OPM_PyProject\opm_hero_property\design\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06517EC8-BF25-4C58-989D-58C7F5529BE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="615" windowWidth="26775" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="10200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_hp_pve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_atk_pve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_def_pve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_crit_pve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_crit_res_pve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_precise_pve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_parry_pve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_dmg_res_pve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_hp_pvp</t>
@@ -90,19 +70,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -110,20 +89,356 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -131,28 +446,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -201,7 +802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -236,7 +837,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -410,44 +1011,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
-    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="8.125" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="8.5" customWidth="1"/>
+    <col min="14" max="14" width="11.75" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="10.25" customWidth="1"/>
+    <col min="17" max="17" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +1096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -553,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -606,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -659,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -712,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -765,7 +1361,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -818,7 +1414,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -871,7 +1467,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -924,7 +1520,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -977,7 +1573,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1030,7 +1626,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1083,7 +1679,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1136,7 +1732,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1189,7 +1785,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1242,7 +1838,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1295,7 +1891,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1348,7 +1944,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1401,7 +1997,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1454,7 +2050,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1507,7 +2103,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1560,7 +2156,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1613,7 +2209,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1666,7 +2262,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1719,7 +2315,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1772,7 +2368,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1825,7 +2421,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1878,7 +2474,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1931,7 +2527,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1984,7 +2580,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2037,7 +2633,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2090,7 +2686,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2143,7 +2739,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2196,7 +2792,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2249,7 +2845,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2302,7 +2898,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2355,7 +2951,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2408,7 +3004,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2461,7 +3057,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2514,7 +3110,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2567,7 +3163,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2620,7 +3216,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2673,7 +3269,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2726,7 +3322,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2779,7 +3375,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2832,7 +3428,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2885,7 +3481,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2938,7 +3534,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2991,7 +3587,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3044,7 +3640,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3097,7 +3693,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3150,7 +3746,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3203,7 +3799,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3256,7 +3852,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3309,7 +3905,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3362,7 +3958,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3415,7 +4011,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3468,7 +4064,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3521,7 +4117,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3574,7 +4170,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3627,7 +4223,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3680,7 +4276,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3733,7 +4329,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3786,7 +4382,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3839,7 +4435,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3892,7 +4488,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3945,7 +4541,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3998,7 +4594,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4051,7 +4647,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4104,7 +4700,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4157,7 +4753,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4210,7 +4806,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4263,7 +4859,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4316,7 +4912,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4369,7 +4965,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4422,7 +5018,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4475,7 +5071,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4528,7 +5124,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4581,7 +5177,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4634,7 +5230,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4687,7 +5283,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4740,7 +5336,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4793,7 +5389,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4846,7 +5442,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4899,7 +5495,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4952,7 +5548,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5005,7 +5601,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5058,7 +5654,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5111,7 +5707,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5164,7 +5760,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5217,7 +5813,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5270,7 +5866,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5323,7 +5919,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5376,7 +5972,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5429,7 +6025,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5482,7 +6078,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5535,7 +6131,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5588,7 +6184,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5641,7 +6237,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5694,7 +6290,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5747,7 +6343,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5800,7 +6396,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5853,7 +6449,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5906,7 +6502,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5959,7 +6555,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6012,7 +6608,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -6065,7 +6661,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -6118,7 +6714,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -6171,7 +6767,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -6224,7 +6820,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -6277,7 +6873,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -6330,7 +6926,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -6383,7 +6979,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -6436,7 +7032,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -6489,7 +7085,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -6542,7 +7138,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -6595,7 +7191,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -6648,7 +7244,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -6701,7 +7297,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -6754,7 +7350,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -6807,7 +7403,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -6860,7 +7456,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -6913,7 +7509,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -6966,7 +7562,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -7019,7 +7615,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -7072,7 +7668,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -7125,7 +7721,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -7178,7 +7774,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -7231,7 +7827,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -7284,7 +7880,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -7337,7 +7933,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -7390,7 +7986,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -7443,7 +8039,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -7496,7 +8092,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -7549,7 +8145,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -7602,7 +8198,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -7655,7 +8251,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -7708,7 +8304,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -7761,7 +8357,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -7814,7 +8410,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -7867,7 +8463,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -7920,7 +8516,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -7973,7 +8569,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -8026,7 +8622,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -8079,7 +8675,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -8132,7 +8728,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -8185,7 +8781,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -8238,7 +8834,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -8291,7 +8887,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -8344,7 +8940,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -8397,7 +8993,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -8451,7 +9047,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>